--- a/biology/Botanique/Association_norvégienne_de_botanique/Association_norvégienne_de_botanique.xlsx
+++ b/biology/Botanique/Association_norvégienne_de_botanique/Association_norvégienne_de_botanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_norv%C3%A9gienne_de_botanique</t>
+          <t>Association_norvégienne_de_botanique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Association norvégienne de botanique (Norsk Botanisk Forening) est une société savante norvégienne fondée en 1935 qui comprend aujourd'hui environ mille cinq cents membres et douze filiales[1]. Elle édite la revue scientifique trimestrielle Blyttia[2] et fait paraître en ligne ses archives photographiques concernant les plantes[3]. Son siège est au muséum d'Oslo[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Association norvégienne de botanique (Norsk Botanisk Forening) est une société savante norvégienne fondée en 1935 qui comprend aujourd'hui environ mille cinq cents membres et douze filiales. Elle édite la revue scientifique trimestrielle Blyttia et fait paraître en ligne ses archives photographiques concernant les plantes. Son siège est au muséum d'Oslo.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_norv%C3%A9gienne_de_botanique</t>
+          <t>Association_norvégienne_de_botanique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présidents</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Kristine Bjureke (2013-)
 Marit Eriksen (2010–2012)
